--- a/bf109.xlsx
+++ b/bf109.xlsx
@@ -151,7 +151,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -196,7 +196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -399,11 +399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316524888"/>
-        <c:axId val="316516264"/>
+        <c:axId val="1813610208"/>
+        <c:axId val="1813616192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316524888"/>
+        <c:axId val="1813610208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,15 +457,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316516264"/>
+        <c:crossAx val="1813616192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316516264"/>
+        <c:axId val="1813616192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,10 +519,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316524888"/>
+        <c:crossAx val="1813610208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -560,7 +560,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1163,9 +1163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1203,7 +1203,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1275,7 +1275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="M88" workbookViewId="0">
+      <selection activeCell="S97" sqref="S97:T105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,6 +3316,420 @@
       </c>
       <c r="O84">
         <f t="shared" si="16"/>
+        <v>1717.7914110429447</v>
+      </c>
+    </row>
+    <row r="87" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>-0.5521472392638036</v>
+      </c>
+      <c r="M87">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="N87">
+        <f>L87*10000</f>
+        <v>-5521.4723926380357</v>
+      </c>
+      <c r="O87">
+        <f>M87*10000</f>
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="Q87">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="R87">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="S87">
+        <f>Q87*10000</f>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="T87">
+        <f>R87*10000</f>
+        <v>1717.7914110429447</v>
+      </c>
+    </row>
+    <row r="88" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="M88">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88:O95" si="19">L88*10000</f>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="19"/>
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="Q88">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="R88">
+        <v>0.24539877300613497</v>
+      </c>
+      <c r="S88">
+        <f t="shared" ref="S88:T95" si="20">Q88*10000</f>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="20"/>
+        <v>2453.9877300613498</v>
+      </c>
+    </row>
+    <row r="89" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>-0.66257668711656448</v>
+      </c>
+      <c r="M89">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="19"/>
+        <v>-6625.7668711656452</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="19"/>
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="Q89">
+        <v>-0.66257668711656448</v>
+      </c>
+      <c r="R89">
+        <v>0.24539877300613497</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="20"/>
+        <v>-6625.7668711656452</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="20"/>
+        <v>2453.9877300613498</v>
+      </c>
+    </row>
+    <row r="90" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>-0.73619631901840488</v>
+      </c>
+      <c r="M90">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="19"/>
+        <v>-7361.9631901840485</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="19"/>
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="Q90">
+        <v>-0.66257668711656448</v>
+      </c>
+      <c r="R90">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="20"/>
+        <v>-6625.7668711656452</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="20"/>
+        <v>1717.7914110429447</v>
+      </c>
+    </row>
+    <row r="91" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>-0.73619631901840488</v>
+      </c>
+      <c r="M91">
+        <v>0.13496932515337423</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="19"/>
+        <v>-7361.9631901840485</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="19"/>
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="Q91">
+        <v>-0.66257668711656448</v>
+      </c>
+      <c r="R91">
+        <v>0.13496932515337423</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="20"/>
+        <v>-6625.7668711656452</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="20"/>
+        <v>1349.6932515337423</v>
+      </c>
+    </row>
+    <row r="92" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>-0.66257668711656448</v>
+      </c>
+      <c r="M92">
+        <v>0.13496932515337423</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="19"/>
+        <v>-6625.7668711656452</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="19"/>
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="Q92">
+        <v>-0.66257668711656448</v>
+      </c>
+      <c r="R92">
+        <v>6.1349693251533742E-2</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="20"/>
+        <v>-6625.7668711656452</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="20"/>
+        <v>613.49693251533745</v>
+      </c>
+    </row>
+    <row r="93" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="M93">
+        <v>0.13496932515337423</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="19"/>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="19"/>
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="Q93">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="R93">
+        <v>6.1349693251533742E-2</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="20"/>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="20"/>
+        <v>613.49693251533745</v>
+      </c>
+    </row>
+    <row r="94" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>-0.5521472392638036</v>
+      </c>
+      <c r="M94">
+        <v>0.13496932515337423</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="19"/>
+        <v>-5521.4723926380357</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="19"/>
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="Q94">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="R94">
+        <v>0.13496932515337423</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="20"/>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="20"/>
+        <v>1349.6932515337423</v>
+      </c>
+    </row>
+    <row r="95" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>-0.5521472392638036</v>
+      </c>
+      <c r="M95">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="19"/>
+        <v>-5521.4723926380357</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="19"/>
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="Q95">
+        <v>-0.62576687116564411</v>
+      </c>
+      <c r="R95">
+        <v>0.17177914110429446</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="20"/>
+        <v>-6257.6687116564408</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="20"/>
+        <v>1717.7914110429447</v>
+      </c>
+    </row>
+    <row r="97" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <f>-N87</f>
+        <v>5521.4723926380357</v>
+      </c>
+      <c r="O97">
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="S97">
+        <f>-S87</f>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="T97">
+        <v>1717.7914110429447</v>
+      </c>
+    </row>
+    <row r="98" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <f t="shared" ref="N98:N106" si="21">-N88</f>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="O98">
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="S98">
+        <f t="shared" ref="S98:S105" si="22">-S88</f>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="T98">
+        <v>2453.9877300613498</v>
+      </c>
+    </row>
+    <row r="99" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <f t="shared" si="21"/>
+        <v>6625.7668711656452</v>
+      </c>
+      <c r="O99">
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="22"/>
+        <v>6625.7668711656452</v>
+      </c>
+      <c r="T99">
+        <v>2453.9877300613498</v>
+      </c>
+    </row>
+    <row r="100" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <f t="shared" si="21"/>
+        <v>7361.9631901840485</v>
+      </c>
+      <c r="O100">
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="22"/>
+        <v>6625.7668711656452</v>
+      </c>
+      <c r="T100">
+        <v>1717.7914110429447</v>
+      </c>
+    </row>
+    <row r="101" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <f t="shared" si="21"/>
+        <v>7361.9631901840485</v>
+      </c>
+      <c r="O101">
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="22"/>
+        <v>6625.7668711656452</v>
+      </c>
+      <c r="T101">
+        <v>1349.6932515337423</v>
+      </c>
+    </row>
+    <row r="102" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <f t="shared" si="21"/>
+        <v>6625.7668711656452</v>
+      </c>
+      <c r="O102">
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="22"/>
+        <v>6625.7668711656452</v>
+      </c>
+      <c r="T102">
+        <v>613.49693251533745</v>
+      </c>
+    </row>
+    <row r="103" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <f t="shared" si="21"/>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="O103">
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="22"/>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="T103">
+        <v>613.49693251533745</v>
+      </c>
+    </row>
+    <row r="104" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <f t="shared" si="21"/>
+        <v>5521.4723926380357</v>
+      </c>
+      <c r="O104">
+        <v>1349.6932515337423</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="22"/>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="T104">
+        <v>1349.6932515337423</v>
+      </c>
+    </row>
+    <row r="105" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <f t="shared" si="21"/>
+        <v>5521.4723926380357</v>
+      </c>
+      <c r="O105">
+        <v>1717.7914110429447</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="22"/>
+        <v>6257.6687116564408</v>
+      </c>
+      <c r="T105">
         <v>1717.7914110429447</v>
       </c>
     </row>
